--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Agrp</t>
+  </si>
+  <si>
+    <t>Mc5r</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Agrp</t>
-  </si>
-  <si>
-    <t>Mc5r</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2267823333333333</v>
+        <v>0.8031959999999999</v>
       </c>
       <c r="H2">
-        <v>0.680347</v>
+        <v>2.409588</v>
       </c>
       <c r="I2">
-        <v>0.08883524641917039</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="J2">
-        <v>0.09044811331728878</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4635846666666667</v>
+        <v>0.3208016666666667</v>
       </c>
       <c r="N2">
-        <v>1.390754</v>
+        <v>0.962405</v>
       </c>
       <c r="O2">
-        <v>0.1767302775232392</v>
+        <v>0.1214789480184765</v>
       </c>
       <c r="P2">
-        <v>0.1862343266337822</v>
+        <v>0.1309586095925594</v>
       </c>
       <c r="Q2">
-        <v>0.1051328124042222</v>
+        <v>0.25766661546</v>
       </c>
       <c r="R2">
-        <v>0.9461953116380001</v>
+        <v>2.31899953914</v>
       </c>
       <c r="S2">
-        <v>0.01569987775350532</v>
+        <v>0.03670920129672934</v>
       </c>
       <c r="T2">
-        <v>0.0168445434789413</v>
+        <v>0.03957381949292044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2267823333333333</v>
+        <v>0.8031959999999999</v>
       </c>
       <c r="H3">
-        <v>0.680347</v>
+        <v>2.409588</v>
       </c>
       <c r="I3">
-        <v>0.08883524641917039</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="J3">
-        <v>0.09044811331728878</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>1.735013</v>
       </c>
       <c r="N3">
-        <v>5.205039000000001</v>
+        <v>5.205038999999999</v>
       </c>
       <c r="O3">
-        <v>0.6614311279991166</v>
+        <v>0.6570026777865272</v>
       </c>
       <c r="P3">
-        <v>0.6970010032454159</v>
+        <v>0.7082721622550237</v>
       </c>
       <c r="Q3">
-        <v>0.3934702965036668</v>
+        <v>1.393555501548</v>
       </c>
       <c r="R3">
-        <v>3.541232668533001</v>
+        <v>12.541999513932</v>
       </c>
       <c r="S3">
-        <v>0.05875839724511135</v>
+        <v>0.1985368160060751</v>
       </c>
       <c r="T3">
-        <v>0.06304242572380533</v>
+        <v>0.2140297212084425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2267823333333333</v>
+        <v>0.8031959999999999</v>
       </c>
       <c r="H4">
-        <v>0.680347</v>
+        <v>2.409588</v>
       </c>
       <c r="I4">
-        <v>0.08883524641917039</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="J4">
-        <v>0.09044811331728878</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.022927</v>
+        <v>0.01150933333333333</v>
       </c>
       <c r="N4">
-        <v>0.06878099999999999</v>
+        <v>0.034528</v>
       </c>
       <c r="O4">
-        <v>0.008740356107784635</v>
+        <v>0.004358274444939456</v>
       </c>
       <c r="P4">
-        <v>0.009210387473412386</v>
+        <v>0.004698374252016452</v>
       </c>
       <c r="Q4">
-        <v>0.005199438556333333</v>
+        <v>0.009244250496</v>
       </c>
       <c r="R4">
-        <v>0.046794947007</v>
+        <v>0.083198254464</v>
       </c>
       <c r="S4">
-        <v>0.000776451688626349</v>
+        <v>0.001317008226654549</v>
       </c>
       <c r="T4">
-        <v>0.0008330621698913406</v>
+        <v>0.001419781525918462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2267823333333333</v>
+        <v>0.8031959999999999</v>
       </c>
       <c r="H5">
-        <v>0.680347</v>
+        <v>2.409588</v>
       </c>
       <c r="I5">
-        <v>0.08883524641917039</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="J5">
-        <v>0.09044811331728878</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.401595</v>
+        <v>0.5734764999999999</v>
       </c>
       <c r="N5">
-        <v>0.80319</v>
+        <v>1.146953</v>
       </c>
       <c r="O5">
-        <v>0.1530982383698596</v>
+        <v>0.2171600997500568</v>
       </c>
       <c r="P5">
-        <v>0.1075542826473895</v>
+        <v>0.1560708539004004</v>
       </c>
       <c r="Q5">
-        <v>0.09107465115499999</v>
+        <v>0.4606140308939999</v>
       </c>
       <c r="R5">
-        <v>0.54644790693</v>
+        <v>2.763684185364</v>
       </c>
       <c r="S5">
-        <v>0.01360051973192736</v>
+        <v>0.0656226773887619</v>
       </c>
       <c r="T5">
-        <v>0.009728081944650789</v>
+        <v>0.04716238069093946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.460649333333333</v>
+      </c>
+      <c r="H6">
+        <v>4.381948</v>
+      </c>
+      <c r="I6">
+        <v>0.5495387744838921</v>
+      </c>
+      <c r="J6">
+        <v>0.5495387744838921</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.8031959999999999</v>
-      </c>
-      <c r="H6">
-        <v>2.409588</v>
-      </c>
-      <c r="I6">
-        <v>0.3146281878933484</v>
-      </c>
-      <c r="J6">
-        <v>0.320340485769731</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.4635846666666667</v>
+        <v>0.3208016666666667</v>
       </c>
       <c r="N6">
-        <v>1.390754</v>
+        <v>0.962405</v>
       </c>
       <c r="O6">
-        <v>0.1767302775232392</v>
+        <v>0.1214789480184765</v>
       </c>
       <c r="P6">
-        <v>0.1862343266337822</v>
+        <v>0.1309586095925594</v>
       </c>
       <c r="Q6">
-        <v>0.372349349928</v>
+        <v>0.4685787405488889</v>
       </c>
       <c r="R6">
-        <v>3.351144149352</v>
+        <v>4.21720866494</v>
       </c>
       <c r="S6">
-        <v>0.0556043269630253</v>
+        <v>0.06675739221966599</v>
       </c>
       <c r="T6">
-        <v>0.05965839466086453</v>
+        <v>0.07196683382360959</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8031959999999999</v>
+        <v>1.460649333333333</v>
       </c>
       <c r="H7">
-        <v>2.409588</v>
+        <v>4.381948</v>
       </c>
       <c r="I7">
-        <v>0.3146281878933484</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="J7">
-        <v>0.320340485769731</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,25 +871,25 @@
         <v>1.735013</v>
       </c>
       <c r="N7">
-        <v>5.205039000000001</v>
+        <v>5.205038999999999</v>
       </c>
       <c r="O7">
-        <v>0.6614311279991166</v>
+        <v>0.6570026777865272</v>
       </c>
       <c r="P7">
-        <v>0.6970010032454159</v>
+        <v>0.7082721622550237</v>
       </c>
       <c r="Q7">
-        <v>1.393555501548</v>
+        <v>2.534245581774667</v>
       </c>
       <c r="R7">
-        <v>12.541999513932</v>
+        <v>22.808210235972</v>
       </c>
       <c r="S7">
-        <v>0.2081048772186155</v>
+        <v>0.3610484463834436</v>
       </c>
       <c r="T7">
-        <v>0.2232776399616264</v>
+        <v>0.3892230160466821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8031959999999999</v>
+        <v>1.460649333333333</v>
       </c>
       <c r="H8">
-        <v>2.409588</v>
+        <v>4.381948</v>
       </c>
       <c r="I8">
-        <v>0.3146281878933484</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="J8">
-        <v>0.320340485769731</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.022927</v>
+        <v>0.01150933333333333</v>
       </c>
       <c r="N8">
-        <v>0.06878099999999999</v>
+        <v>0.034528</v>
       </c>
       <c r="O8">
-        <v>0.008740356107784635</v>
+        <v>0.004358274444939456</v>
       </c>
       <c r="P8">
-        <v>0.009210387473412386</v>
+        <v>0.004698374252016452</v>
       </c>
       <c r="Q8">
-        <v>0.018414874692</v>
+        <v>0.01681110006044445</v>
       </c>
       <c r="R8">
-        <v>0.165733872228</v>
+        <v>0.151299900544</v>
       </c>
       <c r="S8">
-        <v>0.002749962403734839</v>
+        <v>0.002395040797336493</v>
       </c>
       <c r="T8">
-        <v>0.002950459997360369</v>
+        <v>0.002581938828519794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8031959999999999</v>
+        <v>1.460649333333333</v>
       </c>
       <c r="H9">
-        <v>2.409588</v>
+        <v>4.381948</v>
       </c>
       <c r="I9">
-        <v>0.3146281878933484</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="J9">
-        <v>0.320340485769731</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.401595</v>
+        <v>0.5734764999999999</v>
       </c>
       <c r="N9">
-        <v>0.80319</v>
+        <v>1.146953</v>
       </c>
       <c r="O9">
-        <v>0.1530982383698596</v>
+        <v>0.2171600997500568</v>
       </c>
       <c r="P9">
-        <v>0.1075542826473895</v>
+        <v>0.1560708539004004</v>
       </c>
       <c r="Q9">
-        <v>0.32255949762</v>
+        <v>0.8376480674073333</v>
       </c>
       <c r="R9">
-        <v>1.93535698572</v>
+        <v>5.025888404444</v>
       </c>
       <c r="S9">
-        <v>0.04816902130797281</v>
+        <v>0.119337895083446</v>
       </c>
       <c r="T9">
-        <v>0.0344539911498797</v>
+        <v>0.08576698578508062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.3941096666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.182329</v>
+      </c>
+      <c r="I10">
+        <v>0.148275522597887</v>
+      </c>
+      <c r="J10">
+        <v>0.148275522597887</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.7443023333333333</v>
-      </c>
-      <c r="H10">
-        <v>2.232907</v>
-      </c>
-      <c r="I10">
-        <v>0.2915583423989383</v>
-      </c>
-      <c r="J10">
-        <v>0.2968517908699051</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.4635846666666667</v>
+        <v>0.3208016666666667</v>
       </c>
       <c r="N10">
-        <v>1.390754</v>
+        <v>0.962405</v>
       </c>
       <c r="O10">
-        <v>0.1767302775232392</v>
+        <v>0.1214789480184765</v>
       </c>
       <c r="P10">
-        <v>0.1862343266337822</v>
+        <v>0.1309586095925594</v>
       </c>
       <c r="Q10">
-        <v>0.3450471490975556</v>
+        <v>0.1264310379161111</v>
       </c>
       <c r="R10">
-        <v>3.105424341878</v>
+        <v>1.137879341245</v>
       </c>
       <c r="S10">
-        <v>0.05152718676637996</v>
+        <v>0.01801235450208115</v>
       </c>
       <c r="T10">
-        <v>0.0552839933826891</v>
+        <v>0.0194179562760294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.7443023333333333</v>
+        <v>0.3941096666666666</v>
       </c>
       <c r="H11">
-        <v>2.232907</v>
+        <v>1.182329</v>
       </c>
       <c r="I11">
-        <v>0.2915583423989383</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="J11">
-        <v>0.2968517908699051</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,25 +1119,25 @@
         <v>1.735013</v>
       </c>
       <c r="N11">
-        <v>5.205039000000001</v>
+        <v>5.205038999999999</v>
       </c>
       <c r="O11">
-        <v>0.6614311279991166</v>
+        <v>0.6570026777865272</v>
       </c>
       <c r="P11">
-        <v>0.6970010032454159</v>
+        <v>0.7082721622550237</v>
       </c>
       <c r="Q11">
-        <v>1.291374224263667</v>
+        <v>0.6837853950923332</v>
       </c>
       <c r="R11">
-        <v>11.622368018373</v>
+        <v>6.154068555830999</v>
       </c>
       <c r="S11">
-        <v>0.1928457632904824</v>
+        <v>0.09741741539700847</v>
       </c>
       <c r="T11">
-        <v>0.2069059960515222</v>
+        <v>0.105019424999899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.7443023333333333</v>
+        <v>0.3941096666666666</v>
       </c>
       <c r="H12">
-        <v>2.232907</v>
+        <v>1.182329</v>
       </c>
       <c r="I12">
-        <v>0.2915583423989383</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="J12">
-        <v>0.2968517908699051</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.022927</v>
+        <v>0.01150933333333333</v>
       </c>
       <c r="N12">
-        <v>0.06878099999999999</v>
+        <v>0.034528</v>
       </c>
       <c r="O12">
-        <v>0.008740356107784635</v>
+        <v>0.004358274444939456</v>
       </c>
       <c r="P12">
-        <v>0.009210387473412386</v>
+        <v>0.004698374252016452</v>
       </c>
       <c r="Q12">
-        <v>0.01706461959633333</v>
+        <v>0.004535939523555556</v>
       </c>
       <c r="R12">
-        <v>0.153581576367</v>
+        <v>0.040823455712</v>
       </c>
       <c r="S12">
-        <v>0.002548323738762124</v>
+        <v>0.0006462254209484136</v>
       </c>
       <c r="T12">
-        <v>0.002734120016088207</v>
+        <v>0.0006966538975781957</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.7443023333333333</v>
+        <v>0.3941096666666666</v>
       </c>
       <c r="H13">
-        <v>2.232907</v>
+        <v>1.182329</v>
       </c>
       <c r="I13">
-        <v>0.2915583423989383</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="J13">
-        <v>0.2968517908699051</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,524 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.401595</v>
+        <v>0.5734764999999999</v>
       </c>
       <c r="N13">
-        <v>0.80319</v>
+        <v>1.146953</v>
       </c>
       <c r="O13">
-        <v>0.1530982383698596</v>
+        <v>0.2171600997500568</v>
       </c>
       <c r="P13">
-        <v>0.1075542826473895</v>
+        <v>0.1560708539004004</v>
       </c>
       <c r="Q13">
-        <v>0.298908095555</v>
+        <v>0.2260126322561666</v>
       </c>
       <c r="R13">
-        <v>1.79344857333</v>
+        <v>1.356075793537</v>
       </c>
       <c r="S13">
-        <v>0.04463706860331378</v>
+        <v>0.03219952727784894</v>
       </c>
       <c r="T13">
-        <v>0.03192768141960552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.1365665</v>
-      </c>
-      <c r="H14">
-        <v>0.273133</v>
-      </c>
-      <c r="I14">
-        <v>0.05349587201870649</v>
-      </c>
-      <c r="J14">
-        <v>0.03631141834195056</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.4635846666666667</v>
-      </c>
-      <c r="N14">
-        <v>1.390754</v>
-      </c>
-      <c r="O14">
-        <v>0.1767302775232392</v>
-      </c>
-      <c r="P14">
-        <v>0.1862343266337822</v>
-      </c>
-      <c r="Q14">
-        <v>0.06331013538033334</v>
-      </c>
-      <c r="R14">
-        <v>0.379860812282</v>
-      </c>
-      <c r="S14">
-        <v>0.009454340308213682</v>
-      </c>
-      <c r="T14">
-        <v>0.006762432544030729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.1365665</v>
-      </c>
-      <c r="H15">
-        <v>0.273133</v>
-      </c>
-      <c r="I15">
-        <v>0.05349587201870649</v>
-      </c>
-      <c r="J15">
-        <v>0.03631141834195056</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.735013</v>
-      </c>
-      <c r="N15">
-        <v>5.205039000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.6614311279991166</v>
-      </c>
-      <c r="P15">
-        <v>0.6970010032454159</v>
-      </c>
-      <c r="Q15">
-        <v>0.2369446528645001</v>
-      </c>
-      <c r="R15">
-        <v>1.421667917187</v>
-      </c>
-      <c r="S15">
-        <v>0.03538383497262941</v>
-      </c>
-      <c r="T15">
-        <v>0.02530909501360354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.1365665</v>
-      </c>
-      <c r="H16">
-        <v>0.273133</v>
-      </c>
-      <c r="I16">
-        <v>0.05349587201870649</v>
-      </c>
-      <c r="J16">
-        <v>0.03631141834195056</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.022927</v>
-      </c>
-      <c r="N16">
-        <v>0.06878099999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.008740356107784635</v>
-      </c>
-      <c r="P16">
-        <v>0.009210387473412386</v>
-      </c>
-      <c r="Q16">
-        <v>0.0031310601455</v>
-      </c>
-      <c r="R16">
-        <v>0.018786360873</v>
-      </c>
-      <c r="S16">
-        <v>0.0004675729717399664</v>
-      </c>
-      <c r="T16">
-        <v>0.0003344422326385382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.1365665</v>
-      </c>
-      <c r="H17">
-        <v>0.273133</v>
-      </c>
-      <c r="I17">
-        <v>0.05349587201870649</v>
-      </c>
-      <c r="J17">
-        <v>0.03631141834195056</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.401595</v>
-      </c>
-      <c r="N17">
-        <v>0.80319</v>
-      </c>
-      <c r="O17">
-        <v>0.1530982383698596</v>
-      </c>
-      <c r="P17">
-        <v>0.1075542826473895</v>
-      </c>
-      <c r="Q17">
-        <v>0.0548444235675</v>
-      </c>
-      <c r="R17">
-        <v>0.21937769427</v>
-      </c>
-      <c r="S17">
-        <v>0.008190123766123426</v>
-      </c>
-      <c r="T17">
-        <v>0.003905448551677753</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.6419946666666667</v>
-      </c>
-      <c r="H18">
-        <v>1.925984</v>
-      </c>
-      <c r="I18">
-        <v>0.2514823512698365</v>
-      </c>
-      <c r="J18">
-        <v>0.2560481917011247</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.4635846666666667</v>
-      </c>
-      <c r="N18">
-        <v>1.390754</v>
-      </c>
-      <c r="O18">
-        <v>0.1767302775232392</v>
-      </c>
-      <c r="P18">
-        <v>0.1862343266337822</v>
-      </c>
-      <c r="Q18">
-        <v>0.2976188835484445</v>
-      </c>
-      <c r="R18">
-        <v>2.678569951936</v>
-      </c>
-      <c r="S18">
-        <v>0.04444454573211493</v>
-      </c>
-      <c r="T18">
-        <v>0.04768496256725653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.6419946666666667</v>
-      </c>
-      <c r="H19">
-        <v>1.925984</v>
-      </c>
-      <c r="I19">
-        <v>0.2514823512698365</v>
-      </c>
-      <c r="J19">
-        <v>0.2560481917011247</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.735013</v>
-      </c>
-      <c r="N19">
-        <v>5.205039000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.6614311279991166</v>
-      </c>
-      <c r="P19">
-        <v>0.6970010032454159</v>
-      </c>
-      <c r="Q19">
-        <v>1.113869092597334</v>
-      </c>
-      <c r="R19">
-        <v>10.024821833376</v>
-      </c>
-      <c r="S19">
-        <v>0.1663382552722781</v>
-      </c>
-      <c r="T19">
-        <v>0.1784658464948585</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.6419946666666667</v>
-      </c>
-      <c r="H20">
-        <v>1.925984</v>
-      </c>
-      <c r="I20">
-        <v>0.2514823512698365</v>
-      </c>
-      <c r="J20">
-        <v>0.2560481917011247</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.022927</v>
-      </c>
-      <c r="N20">
-        <v>0.06878099999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.008740356107784635</v>
-      </c>
-      <c r="P20">
-        <v>0.009210387473412386</v>
-      </c>
-      <c r="Q20">
-        <v>0.01471901172266667</v>
-      </c>
-      <c r="R20">
-        <v>0.132471105504</v>
-      </c>
-      <c r="S20">
-        <v>0.002198045304921357</v>
-      </c>
-      <c r="T20">
-        <v>0.002358303057433932</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.6419946666666667</v>
-      </c>
-      <c r="H21">
-        <v>1.925984</v>
-      </c>
-      <c r="I21">
-        <v>0.2514823512698365</v>
-      </c>
-      <c r="J21">
-        <v>0.2560481917011247</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.401595</v>
-      </c>
-      <c r="N21">
-        <v>0.80319</v>
-      </c>
-      <c r="O21">
-        <v>0.1530982383698596</v>
-      </c>
-      <c r="P21">
-        <v>0.1075542826473895</v>
-      </c>
-      <c r="Q21">
-        <v>0.25782184816</v>
-      </c>
-      <c r="R21">
-        <v>1.54693108896</v>
-      </c>
-      <c r="S21">
-        <v>0.03850150496052219</v>
-      </c>
-      <c r="T21">
-        <v>0.02753907958157573</v>
+        <v>0.02314148742438033</v>
       </c>
     </row>
   </sheetData>
